--- a/tabular/CosmoYUG_miss.xlsx
+++ b/tabular/CosmoYUG_miss.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10308"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kathryncampbell/Dropbox/GLUE/Metadata/CosmoYUG/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/virus/general/NCBI-RABV-GLUE/tabular/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE7EE899-7FB8-BF4E-A576-4D80E5F83396}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AE44AF3-6A7B-9349-83DF-7754A74490A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="960" yWindow="460" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,52 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="75">
-  <si>
-    <t>sequence.sequenceID</t>
-  </si>
-  <si>
-    <t>alignment.name</t>
-  </si>
-  <si>
-    <t>alignment.displayName</t>
-  </si>
-  <si>
-    <t>sequence.m49_country.id</t>
-  </si>
-  <si>
-    <t>sequence.m49_country.display_name</t>
-  </si>
-  <si>
-    <t>sequence.gb_place_sampled</t>
-  </si>
-  <si>
-    <t>sequence.collection_year</t>
-  </si>
-  <si>
-    <t>sequence.earliest_collection_year</t>
-  </si>
-  <si>
-    <t>sequence.latest_collection_year</t>
-  </si>
-  <si>
-    <t>sequence.gb_length</t>
-  </si>
-  <si>
-    <t>sequence.gb_create_date</t>
-  </si>
-  <si>
-    <t>sequence.gb_update_date</t>
-  </si>
-  <si>
-    <t>sequence.host</t>
-  </si>
-  <si>
-    <t>sequence.gb_pubmed_id</t>
-  </si>
-  <si>
-    <t>sequence.isolate</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="76">
   <si>
     <t>AF134344</t>
   </si>
@@ -178,48 +133,21 @@
     <t>country_edit</t>
   </si>
   <si>
-    <t>Country_update</t>
-  </si>
-  <si>
     <t>place_edit</t>
   </si>
   <si>
     <t>place_update</t>
   </si>
   <si>
-    <t>Collection.year_edit</t>
-  </si>
-  <si>
-    <t>Collection.year_update</t>
-  </si>
-  <si>
-    <t>earliest.collection_edit</t>
-  </si>
-  <si>
-    <t>earliest.collection_update</t>
-  </si>
-  <si>
-    <t>latest.collection_edit</t>
-  </si>
-  <si>
-    <t>latest.collection_update</t>
-  </si>
-  <si>
     <t>host_edit</t>
   </si>
   <si>
     <t>host_update</t>
   </si>
   <si>
-    <t>host.common_edit</t>
-  </si>
-  <si>
     <t>Lab_construct</t>
   </si>
   <si>
-    <t>vaccine</t>
-  </si>
-  <si>
     <t>pubmedID_edit</t>
   </si>
   <si>
@@ -245,6 +173,81 @@
   </si>
   <si>
     <t>no</t>
+  </si>
+  <si>
+    <t>sequenceID</t>
+  </si>
+  <si>
+    <t>alignment_name</t>
+  </si>
+  <si>
+    <t>alignment_displayName</t>
+  </si>
+  <si>
+    <t>m49_country.id</t>
+  </si>
+  <si>
+    <t>m49_country.display_name</t>
+  </si>
+  <si>
+    <t>gb_place_sampled</t>
+  </si>
+  <si>
+    <t>collection_year</t>
+  </si>
+  <si>
+    <t>earliest_collection_year</t>
+  </si>
+  <si>
+    <t>latest_collection_year</t>
+  </si>
+  <si>
+    <t>gb_length</t>
+  </si>
+  <si>
+    <t>gb_create_date</t>
+  </si>
+  <si>
+    <t>gb_update_date</t>
+  </si>
+  <si>
+    <t>host</t>
+  </si>
+  <si>
+    <t>gb_pubmed_id</t>
+  </si>
+  <si>
+    <t>isolate</t>
+  </si>
+  <si>
+    <t>country_update</t>
+  </si>
+  <si>
+    <t>collection_year_edit</t>
+  </si>
+  <si>
+    <t>collection_year_update</t>
+  </si>
+  <si>
+    <t>earliest_collection_edit</t>
+  </si>
+  <si>
+    <t>earliest_collection_update</t>
+  </si>
+  <si>
+    <t>latest_collection_edit</t>
+  </si>
+  <si>
+    <t>latest_collection_update</t>
+  </si>
+  <si>
+    <t>host_common_edit</t>
+  </si>
+  <si>
+    <t>Vaccine</t>
+  </si>
+  <si>
+    <t>Notes</t>
   </si>
 </sst>
 </file>
@@ -268,15 +271,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -288,12 +291,6 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -319,8 +316,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -330,19 +333,34 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color theme="1"/>
       </left>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color theme="1"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
       </right>
       <top/>
       <bottom/>
@@ -354,26 +372,56 @@
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="11">
     <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="6"/>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF9FEDFD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF9FEDFD"/>
         </patternFill>
       </fill>
     </dxf>
@@ -409,11 +457,14 @@
       </fill>
     </dxf>
     <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-      </border>
+      <font>
+        <color rgb="FF00B0F0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF60F8FF"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -427,37 +478,32 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color rgb="FF000000"/>
+        <color theme="1"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </font>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFFFC000"/>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
       <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF00B0F0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF60F8FF"/>
-        </patternFill>
-      </fill>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -473,24 +519,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0092C730-CE94-C740-9A35-38D14F890D42}" name="Table1" displayName="Table1" ref="Q1:AG8" totalsRowShown="0" headerRowDxfId="5" tableBorderDxfId="4">
-  <autoFilter ref="Q1:AG8" xr:uid="{ADC41F8C-B8F6-1741-9F28-B1E52C85E63E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0092C730-CE94-C740-9A35-38D14F890D42}" name="Table1" displayName="Table1" ref="P1:AF8" totalsRowShown="0" headerRowDxfId="8" tableBorderDxfId="10">
+  <autoFilter ref="P1:AF8" xr:uid="{ADC41F8C-B8F6-1741-9F28-B1E52C85E63E}"/>
   <tableColumns count="17">
     <tableColumn id="1" xr3:uid="{A36A8317-AA2A-DA4B-9188-7D62BEDF151C}" name="country_edit"/>
-    <tableColumn id="2" xr3:uid="{C3339AD2-4749-384C-9FE4-8B0D6B8BE0FA}" name="Country_update"/>
+    <tableColumn id="2" xr3:uid="{C3339AD2-4749-384C-9FE4-8B0D6B8BE0FA}" name="country_update"/>
     <tableColumn id="3" xr3:uid="{FFAEBA16-2CE7-8F45-A3A0-A1927C6A63B1}" name="place_edit"/>
     <tableColumn id="4" xr3:uid="{F6A91388-4B17-A14F-A854-926BD8E44E48}" name="place_update"/>
-    <tableColumn id="5" xr3:uid="{EED619A0-EA7D-2A40-8EDA-FD2BA6DFBD31}" name="Collection.year_edit"/>
-    <tableColumn id="6" xr3:uid="{99D44C96-7EE7-0641-9BB2-80BF7E39BDC7}" name="Collection.year_update"/>
-    <tableColumn id="7" xr3:uid="{3C2CFFFF-A42E-8C45-BB18-3D83E9D1D38E}" name="earliest.collection_edit" dataDxfId="0"/>
-    <tableColumn id="8" xr3:uid="{C4CA0C54-7BF9-494D-A72F-119C6BD6460A}" name="earliest.collection_update"/>
-    <tableColumn id="9" xr3:uid="{63B8470E-F51A-D744-B601-AF9EFCFE74FD}" name="latest.collection_edit"/>
-    <tableColumn id="10" xr3:uid="{CC1B2506-9CB6-034A-AEDD-AF8683C52905}" name="latest.collection_update"/>
+    <tableColumn id="5" xr3:uid="{EED619A0-EA7D-2A40-8EDA-FD2BA6DFBD31}" name="collection_year_edit"/>
+    <tableColumn id="6" xr3:uid="{99D44C96-7EE7-0641-9BB2-80BF7E39BDC7}" name="collection_year_update"/>
+    <tableColumn id="7" xr3:uid="{3C2CFFFF-A42E-8C45-BB18-3D83E9D1D38E}" name="earliest_collection_edit" dataDxfId="9"/>
+    <tableColumn id="8" xr3:uid="{C4CA0C54-7BF9-494D-A72F-119C6BD6460A}" name="earliest_collection_update"/>
+    <tableColumn id="9" xr3:uid="{63B8470E-F51A-D744-B601-AF9EFCFE74FD}" name="latest_collection_edit"/>
+    <tableColumn id="10" xr3:uid="{CC1B2506-9CB6-034A-AEDD-AF8683C52905}" name="latest_collection_update"/>
     <tableColumn id="11" xr3:uid="{A1ED6D12-66A5-444B-9F96-FC34E4BAF079}" name="host_edit"/>
     <tableColumn id="12" xr3:uid="{886B849E-880B-554E-944D-42AF6761D05B}" name="host_update"/>
-    <tableColumn id="13" xr3:uid="{27A24049-4324-A546-B74D-7B2ED3E25082}" name="host.common_edit"/>
+    <tableColumn id="13" xr3:uid="{27A24049-4324-A546-B74D-7B2ED3E25082}" name="host_common_edit"/>
     <tableColumn id="14" xr3:uid="{CC3F73A0-FDD9-1D46-AB12-2C550DE9B265}" name="Lab_construct"/>
-    <tableColumn id="15" xr3:uid="{C495B158-9FD6-BD45-AC12-5261AD9FDD32}" name="vaccine"/>
+    <tableColumn id="15" xr3:uid="{C495B158-9FD6-BD45-AC12-5261AD9FDD32}" name="Vaccine"/>
     <tableColumn id="16" xr3:uid="{FAF27E6A-320C-D846-A03D-75841F3B6E1D}" name="pubmedID_edit"/>
     <tableColumn id="17" xr3:uid="{806C38AC-B141-6448-A87F-ADA58EDA3BA6}" name="pubmed_update"/>
   </tableColumns>
@@ -819,154 +865,157 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH8"/>
+  <dimension ref="A1:AG8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="AD17" sqref="AD17"/>
+    <sheetView tabSelected="1" zoomScale="241" zoomScaleNormal="241" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="17" max="17" width="13.5" customWidth="1"/>
-    <col min="18" max="18" width="16" customWidth="1"/>
-    <col min="19" max="19" width="11.6640625" customWidth="1"/>
-    <col min="20" max="20" width="14" customWidth="1"/>
-    <col min="21" max="21" width="19.33203125" customWidth="1"/>
-    <col min="22" max="23" width="21.6640625" customWidth="1"/>
-    <col min="24" max="24" width="24" customWidth="1"/>
-    <col min="25" max="25" width="20.1640625" customWidth="1"/>
-    <col min="26" max="26" width="22.5" customWidth="1"/>
-    <col min="27" max="27" width="10.83203125" customWidth="1"/>
-    <col min="28" max="28" width="13.1640625" customWidth="1"/>
-    <col min="29" max="29" width="18.1640625" customWidth="1"/>
-    <col min="30" max="30" width="14.33203125" customWidth="1"/>
-    <col min="31" max="31" width="9.33203125" customWidth="1"/>
-    <col min="32" max="32" width="15.6640625" customWidth="1"/>
-    <col min="33" max="33" width="16.33203125" customWidth="1"/>
+    <col min="16" max="16" width="13.5" customWidth="1"/>
+    <col min="17" max="17" width="16" customWidth="1"/>
+    <col min="18" max="18" width="11.6640625" customWidth="1"/>
+    <col min="19" max="19" width="14" customWidth="1"/>
+    <col min="20" max="20" width="19.33203125" customWidth="1"/>
+    <col min="21" max="22" width="21.6640625" customWidth="1"/>
+    <col min="23" max="23" width="24" customWidth="1"/>
+    <col min="24" max="24" width="20.1640625" customWidth="1"/>
+    <col min="25" max="25" width="22.5" customWidth="1"/>
+    <col min="26" max="26" width="10.83203125" customWidth="1"/>
+    <col min="27" max="27" width="13.1640625" customWidth="1"/>
+    <col min="28" max="28" width="18.1640625" customWidth="1"/>
+    <col min="29" max="29" width="14.33203125" customWidth="1"/>
+    <col min="30" max="30" width="9.33203125" customWidth="1"/>
+    <col min="31" max="31" width="15.6640625" customWidth="1"/>
+    <col min="32" max="32" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="V1" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="W1" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="X1" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y1" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z1" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA1" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB1" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC1" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD1" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE1" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF1" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG1" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC1" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="AD1" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AE1" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AF1" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AG1" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" t="s">
-        <v>19</v>
-      </c>
       <c r="F2" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G2" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I2">
         <v>2000</v>
@@ -975,93 +1024,93 @@
         <v>690</v>
       </c>
       <c r="K2" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="L2" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="M2" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="N2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="O2" t="s">
-        <v>25</v>
+        <v>10</v>
+      </c>
+      <c r="P2" t="s">
+        <v>4</v>
       </c>
       <c r="Q2" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="R2" t="s">
-        <v>72</v>
+        <v>5</v>
       </c>
       <c r="S2" t="s">
-        <v>20</v>
-      </c>
-      <c r="T2" t="s">
-        <v>72</v>
-      </c>
-      <c r="U2" s="5">
+        <v>48</v>
+      </c>
+      <c r="T2" s="1">
         <v>1981</v>
       </c>
-      <c r="V2" t="s">
-        <v>71</v>
-      </c>
-      <c r="W2" s="5">
+      <c r="U2" t="s">
+        <v>47</v>
+      </c>
+      <c r="V2" s="1">
         <v>1981</v>
       </c>
-      <c r="X2" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y2" s="6">
+      <c r="W2" t="s">
+        <v>47</v>
+      </c>
+      <c r="X2" s="2">
         <v>1981</v>
       </c>
-      <c r="Z2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA2" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>73</v>
+      <c r="Y2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>50</v>
       </c>
       <c r="AD2" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="AE2" t="s">
-        <v>74</v>
+        <v>9</v>
       </c>
       <c r="AF2" t="s">
-        <v>24</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="F3" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G3" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H3" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I3">
         <v>2000</v>
@@ -1070,93 +1119,93 @@
         <v>690</v>
       </c>
       <c r="K3" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="L3" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="M3" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="N3" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="O3" t="s">
-        <v>30</v>
+        <v>15</v>
+      </c>
+      <c r="P3" t="s">
+        <v>4</v>
       </c>
       <c r="Q3" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="R3" t="s">
-        <v>72</v>
+        <v>5</v>
       </c>
       <c r="S3" t="s">
-        <v>20</v>
-      </c>
-      <c r="T3" t="s">
-        <v>72</v>
-      </c>
-      <c r="U3" s="5">
+        <v>48</v>
+      </c>
+      <c r="T3" s="1">
         <v>1976</v>
       </c>
-      <c r="V3" t="s">
-        <v>71</v>
-      </c>
-      <c r="W3" s="5">
+      <c r="U3" t="s">
+        <v>47</v>
+      </c>
+      <c r="V3" s="1">
         <v>1976</v>
       </c>
-      <c r="X3" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y3" s="6">
+      <c r="W3" t="s">
+        <v>47</v>
+      </c>
+      <c r="X3" s="2">
         <v>1976</v>
       </c>
+      <c r="Y3" t="s">
+        <v>49</v>
+      </c>
       <c r="Z3" t="s">
-        <v>73</v>
+        <v>14</v>
       </c>
       <c r="AA3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>72</v>
+        <v>48</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>50</v>
       </c>
       <c r="AD3" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="AE3" t="s">
-        <v>74</v>
+        <v>9</v>
       </c>
       <c r="AF3" t="s">
-        <v>24</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G4" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H4" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I4">
         <v>2001</v>
@@ -1165,93 +1214,93 @@
         <v>2091</v>
       </c>
       <c r="K4" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="L4" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="M4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>18</v>
+      </c>
+      <c r="O4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>47</v>
+      </c>
+      <c r="R4" t="s">
+        <v>5</v>
+      </c>
+      <c r="S4" t="s">
+        <v>48</v>
+      </c>
+      <c r="T4" s="1">
+        <v>1984</v>
+      </c>
+      <c r="U4" t="s">
+        <v>47</v>
+      </c>
+      <c r="V4" s="1">
+        <v>1984</v>
+      </c>
+      <c r="W4" t="s">
+        <v>47</v>
+      </c>
+      <c r="X4" s="2">
+        <v>1984</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>20</v>
       </c>
-      <c r="N4" t="s">
-        <v>33</v>
-      </c>
-      <c r="O4" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="R4" t="s">
-        <v>71</v>
-      </c>
-      <c r="S4" t="s">
-        <v>20</v>
-      </c>
-      <c r="T4" t="s">
-        <v>72</v>
-      </c>
-      <c r="U4" s="5">
-        <v>1984</v>
-      </c>
-      <c r="V4" t="s">
-        <v>71</v>
-      </c>
-      <c r="W4" s="5">
-        <v>1984</v>
-      </c>
-      <c r="X4" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y4" s="6">
-        <v>1984</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA4" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>71</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>74</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>74</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>35</v>
-      </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="F5" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G5" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I5">
         <v>2016</v>
@@ -1260,93 +1309,93 @@
         <v>211</v>
       </c>
       <c r="K5" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="L5" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="M5" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="N5" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="O5" t="s">
-        <v>41</v>
+        <v>26</v>
+      </c>
+      <c r="P5" t="s">
+        <v>22</v>
       </c>
       <c r="Q5" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="R5" t="s">
-        <v>72</v>
+        <v>5</v>
       </c>
       <c r="S5" t="s">
-        <v>20</v>
-      </c>
-      <c r="T5" t="s">
-        <v>72</v>
-      </c>
-      <c r="U5" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="V5" t="s">
-        <v>72</v>
-      </c>
-      <c r="W5" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="X5" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y5">
+        <v>48</v>
+      </c>
+      <c r="T5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="U5" t="s">
+        <v>48</v>
+      </c>
+      <c r="V5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="W5" t="s">
+        <v>48</v>
+      </c>
+      <c r="X5">
         <v>2016</v>
       </c>
+      <c r="Y5" t="s">
+        <v>48</v>
+      </c>
       <c r="Z5" t="s">
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="AA5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>72</v>
+        <v>48</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>50</v>
       </c>
       <c r="AD5" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="AE5" t="s">
-        <v>74</v>
+        <v>25</v>
       </c>
       <c r="AF5" t="s">
-        <v>40</v>
-      </c>
-      <c r="AG5" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G6" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H6" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I6">
         <v>1995</v>
@@ -1355,96 +1404,96 @@
         <v>1350</v>
       </c>
       <c r="K6" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="L6" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="M6" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="N6" t="s">
+        <v>30</v>
+      </c>
+      <c r="O6" t="s">
+        <v>31</v>
+      </c>
+      <c r="P6" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="O6" t="s">
+      <c r="Q6" t="s">
+        <v>47</v>
+      </c>
+      <c r="R6" t="s">
+        <v>5</v>
+      </c>
+      <c r="S6" t="s">
+        <v>48</v>
+      </c>
+      <c r="T6" s="1">
+        <v>1972</v>
+      </c>
+      <c r="U6" t="s">
+        <v>47</v>
+      </c>
+      <c r="V6" s="1">
+        <v>1972</v>
+      </c>
+      <c r="W6" t="s">
+        <v>47</v>
+      </c>
+      <c r="X6" s="2">
+        <v>1972</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>48</v>
+      </c>
+      <c r="AG6" t="s">
         <v>46</v>
       </c>
-      <c r="Q6" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="R6" t="s">
-        <v>71</v>
-      </c>
-      <c r="S6" t="s">
-        <v>20</v>
-      </c>
-      <c r="T6" t="s">
-        <v>72</v>
-      </c>
-      <c r="U6" s="5">
-        <v>1972</v>
-      </c>
-      <c r="V6" t="s">
-        <v>71</v>
-      </c>
-      <c r="W6" s="5">
-        <v>1972</v>
-      </c>
-      <c r="X6" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y6" s="6">
-        <v>1972</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA6" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>71</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>74</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>74</v>
-      </c>
-      <c r="AF6" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG6" t="s">
-        <v>72</v>
-      </c>
-      <c r="AH6" t="s">
-        <v>70</v>
-      </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F7" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G7" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H7" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I7">
         <v>1999</v>
@@ -1453,96 +1502,96 @@
         <v>1443</v>
       </c>
       <c r="K7" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="L7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M7" t="s">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>5</v>
+      </c>
+      <c r="O7" t="s">
+        <v>15</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>47</v>
+      </c>
+      <c r="R7" t="s">
+        <v>5</v>
+      </c>
+      <c r="S7" t="s">
+        <v>48</v>
+      </c>
+      <c r="T7" s="1">
+        <v>1976</v>
+      </c>
+      <c r="U7" t="s">
+        <v>47</v>
+      </c>
+      <c r="V7" s="1">
+        <v>1976</v>
+      </c>
+      <c r="W7" t="s">
+        <v>47</v>
+      </c>
+      <c r="X7" s="2">
+        <v>1976</v>
+      </c>
+      <c r="Y7" t="s">
         <v>49</v>
       </c>
-      <c r="M7" t="s">
-        <v>20</v>
-      </c>
-      <c r="N7" t="s">
-        <v>20</v>
-      </c>
-      <c r="O7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="R7" t="s">
-        <v>71</v>
-      </c>
-      <c r="S7" t="s">
-        <v>20</v>
-      </c>
-      <c r="T7" t="s">
-        <v>72</v>
-      </c>
-      <c r="U7" s="5">
-        <v>1976</v>
-      </c>
-      <c r="V7" t="s">
-        <v>71</v>
-      </c>
-      <c r="W7" s="5">
-        <v>1976</v>
-      </c>
-      <c r="X7" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y7" s="6">
-        <v>1976</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA7" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>71</v>
+      <c r="Z7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>50</v>
       </c>
       <c r="AD7" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="AE7" t="s">
-        <v>74</v>
+        <v>5</v>
       </c>
       <c r="AF7" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="AG7" t="s">
-        <v>72</v>
-      </c>
-      <c r="AH7" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E8" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F8" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G8" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H8" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I8">
         <v>1999</v>
@@ -1551,88 +1600,96 @@
         <v>1443</v>
       </c>
       <c r="K8" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="L8" t="s">
+        <v>34</v>
+      </c>
+      <c r="M8" t="s">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>5</v>
+      </c>
+      <c r="O8" t="s">
+        <v>10</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>47</v>
+      </c>
+      <c r="R8" t="s">
+        <v>5</v>
+      </c>
+      <c r="S8" t="s">
+        <v>48</v>
+      </c>
+      <c r="T8" s="1">
+        <v>1981</v>
+      </c>
+      <c r="U8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V8" s="1">
+        <v>1981</v>
+      </c>
+      <c r="W8" t="s">
+        <v>47</v>
+      </c>
+      <c r="X8" s="2">
+        <v>1981</v>
+      </c>
+      <c r="Y8" t="s">
         <v>49</v>
       </c>
-      <c r="M8" t="s">
-        <v>20</v>
-      </c>
-      <c r="N8" t="s">
-        <v>20</v>
-      </c>
-      <c r="O8" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="R8" t="s">
-        <v>71</v>
-      </c>
-      <c r="S8" t="s">
-        <v>20</v>
-      </c>
-      <c r="T8" t="s">
-        <v>72</v>
-      </c>
-      <c r="U8" s="5">
-        <v>1981</v>
-      </c>
-      <c r="V8" t="s">
-        <v>71</v>
-      </c>
-      <c r="W8" s="5">
-        <v>1981</v>
-      </c>
-      <c r="X8" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y8" s="6">
-        <v>1981</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA8" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>71</v>
+      <c r="Z8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>50</v>
       </c>
       <c r="AD8" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="AE8" t="s">
-        <v>74</v>
+        <v>5</v>
       </c>
       <c r="AF8" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="AG8" t="s">
-        <v>72</v>
-      </c>
-      <c r="AH8" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="Q1:AG1">
-    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
+  <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="P1:AF1048576">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>"updated"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
       <formula>"filled in"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q1:AG1048576">
+  <conditionalFormatting sqref="AG1">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+      <formula>"updated"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>"filled in"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q1 S1 U1 W1 Y1 AA1 AF1">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"updated"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>"filled in"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
